--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2554608.543860088</v>
+        <v>-2557525.124501664</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9718208.102632754</v>
+        <v>9718208.102632755</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G2" t="n">
-        <v>268.0607811825788</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>20.75911149906585</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>4.039441401188948</v>
       </c>
       <c r="X3" t="n">
-        <v>192.2917064355644</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>94.25736106477147</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>239.8681530125502</v>
+        <v>280.1364654339949</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>280.1364654339949</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>280.1364654339938</v>
+        <v>280.1364654339949</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>280.1364654339938</v>
+        <v>239.8681530125513</v>
       </c>
       <c r="Y5" t="n">
-        <v>280.1364654339938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>24.66916011524913</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1026,16 +1026,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.8313977055116</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>145.5129369262371</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>30.87997192349799</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>179.4954449417091</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>288.4222840565987</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>20.03801756492474</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>43.16288100277472</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>10.03156470826285</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206822</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>67.44238537797067</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>183.8488525946973</v>
       </c>
       <c r="T13" t="n">
-        <v>144.5652608367855</v>
+        <v>218.097472392356</v>
       </c>
       <c r="U13" t="n">
         <v>286.1933087134791</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>16.10455312450366</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>86.13649374674407</v>
@@ -1819,19 +1819,19 @@
         <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
-        <v>229.0127485397778</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>286.8518683469699</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>91.93034877516574</v>
+        <v>91.93034877516573</v>
       </c>
       <c r="T17" t="n">
         <v>200.6028050067863</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174123</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>74.46536979806821</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>141.7347076965137</v>
       </c>
       <c r="I19" t="n">
-        <v>86.13649374674408</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.65767465442975</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S19" t="n">
         <v>183.8488525946973</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>218.097472392356</v>
       </c>
       <c r="U19" t="n">
         <v>286.1933087134791</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>92.95449878008485</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>286.8518683469699</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>91.93034877516574</v>
+        <v>91.93034877516573</v>
       </c>
       <c r="T20" t="n">
         <v>200.6028050067863</v>
@@ -2138,7 +2138,7 @@
         <v>250.9345864167828</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701333</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2175,10 +2175,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H21" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>81.97599399093642</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>80.41527379555117</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.65767465442975</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S22" t="n">
         <v>183.8488525946973</v>
@@ -2336,7 +2336,7 @@
         <v>286.8518683469699</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>91.93034877516574</v>
+        <v>91.93034877516573</v>
       </c>
       <c r="T23" t="n">
         <v>200.6028050067863</v>
@@ -2375,10 +2375,10 @@
         <v>250.9345864167828</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701333</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174123</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2412,10 +2412,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H24" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>80.41527379555073</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.65767465442975</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S25" t="n">
-        <v>183.8488525946973</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>218.097472392356</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>192.4985990276172</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295182</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2649,10 +2649,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H27" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I27" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
         <v>113.8108456707173</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139452967</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221558</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612646</v>
       </c>
       <c r="V28" t="n">
         <v>220.5274409716141</v>
@@ -2779,7 +2779,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998802</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295182</v>
+        <v>60.3201464229518</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2886,10 +2886,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H30" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2956,10 +2956,10 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943541</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707167</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G31" t="n">
         <v>134.0758985510282</v>
@@ -3001,10 +3001,10 @@
         <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V31" t="n">
         <v>220.5274409716141</v>
@@ -3016,7 +3016,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
@@ -3086,7 +3086,7 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179206</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
         <v>317.6307663651991</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453014</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>42.04747230221579</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424839</v>
+        <v>152.2386502424843</v>
       </c>
       <c r="T34" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401418</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612642</v>
+        <v>254.5831063612648</v>
       </c>
       <c r="V34" t="n">
         <v>220.5274409716141</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139452962</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221558</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3478,7 +3478,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612648</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V37" t="n">
         <v>220.5274409716141</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894975</v>
@@ -3518,7 +3518,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
       </c>
       <c r="W38" t="n">
-        <v>317.6307663651987</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X38" t="n">
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I39" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T39" t="n">
         <v>189.0833237787849</v>
@@ -3667,7 +3667,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F40" t="n">
         <v>113.8108456707173</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221603</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401418</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612646</v>
+        <v>254.5831063612655</v>
       </c>
       <c r="V40" t="n">
         <v>220.5274409716141</v>
@@ -3727,7 +3727,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V41" t="n">
         <v>296.142056117921</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C43" t="n">
         <v>135.6366187464139</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221603</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.4872700401418</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612648</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V43" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W43" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X43" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="44">
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
         <v>219.3243840645688</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C46" t="n">
         <v>135.6366187464139</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
         <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612655</v>
       </c>
       <c r="V46" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W46" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
         <v>194.0994530368232</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>571.8069603738999</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="C2" t="n">
-        <v>292.8609869371771</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="D2" t="n">
-        <v>292.8609869371771</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="E2" t="n">
-        <v>292.8609869371771</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="F2" t="n">
-        <v>292.8609869371771</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G2" t="n">
         <v>22.09252109618844</v>
@@ -4328,10 +4328,10 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412869</v>
@@ -4340,10 +4340,10 @@
         <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823544</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>1083.657255315416</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>1083.657255315416</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="U2" t="n">
-        <v>850.7529338106226</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="V2" t="n">
-        <v>850.7529338106226</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="W2" t="n">
-        <v>850.7529338106226</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="X2" t="n">
-        <v>850.7529338106226</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="Y2" t="n">
-        <v>571.8069603738999</v>
+        <v>579.9844679696339</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>702.6317091398574</v>
+        <v>594.3691139233433</v>
       </c>
       <c r="C3" t="n">
-        <v>528.1786798587304</v>
+        <v>419.9160846422163</v>
       </c>
       <c r="D3" t="n">
-        <v>528.1786798587304</v>
+        <v>419.9160846422163</v>
       </c>
       <c r="E3" t="n">
-        <v>368.941224853275</v>
+        <v>419.9160846422163</v>
       </c>
       <c r="F3" t="n">
-        <v>222.40666688016</v>
+        <v>273.3815266691013</v>
       </c>
       <c r="G3" t="n">
-        <v>222.40666688016</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L3" t="n">
-        <v>405.6478494291521</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M3" t="n">
-        <v>555.4329354292296</v>
+        <v>367.8501726635177</v>
       </c>
       <c r="N3" t="n">
-        <v>828.8278839945615</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945615</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="T3" t="n">
-        <v>1104.626054809422</v>
+        <v>806.3008579684609</v>
       </c>
       <c r="U3" t="n">
-        <v>1104.626054809422</v>
+        <v>806.3008579684609</v>
       </c>
       <c r="V3" t="n">
-        <v>1104.626054809422</v>
+        <v>806.3008579684609</v>
       </c>
       <c r="W3" t="n">
-        <v>1104.626054809422</v>
+        <v>802.2206141288762</v>
       </c>
       <c r="X3" t="n">
-        <v>910.3920079048114</v>
+        <v>594.3691139233433</v>
       </c>
       <c r="Y3" t="n">
-        <v>702.6317091398574</v>
+        <v>594.3691139233433</v>
       </c>
     </row>
     <row r="4">
@@ -4507,16 +4507,16 @@
         <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031359</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="T4" t="n">
-        <v>22.09252109618844</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="U4" t="n">
         <v>22.09252109618844</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>271.6474816329636</v>
+        <v>595.288671385933</v>
       </c>
       <c r="C5" t="n">
-        <v>271.6474816329636</v>
+        <v>595.288671385933</v>
       </c>
       <c r="D5" t="n">
-        <v>271.6474816329636</v>
+        <v>595.288671385933</v>
       </c>
       <c r="E5" t="n">
-        <v>271.6474816329636</v>
+        <v>595.288671385933</v>
       </c>
       <c r="F5" t="n">
-        <v>264.7019808837601</v>
+        <v>588.3431706367295</v>
       </c>
       <c r="G5" t="n">
-        <v>22.41091723471951</v>
+        <v>305.3770439357245</v>
       </c>
       <c r="H5" t="n">
-        <v>22.41091723471951</v>
+        <v>22.41091723471959</v>
       </c>
       <c r="I5" t="n">
-        <v>22.41091723471951</v>
+        <v>22.41091723471959</v>
       </c>
       <c r="J5" t="n">
-        <v>23.56820154246617</v>
+        <v>23.56820154246657</v>
       </c>
       <c r="K5" t="n">
-        <v>146.0474749724495</v>
+        <v>146.0474749724505</v>
       </c>
       <c r="L5" t="n">
-        <v>350.2704715627721</v>
+        <v>350.2704715627736</v>
       </c>
       <c r="M5" t="n">
-        <v>594.1144503012131</v>
+        <v>594.1144503012152</v>
       </c>
       <c r="N5" t="n">
-        <v>827.2720820008601</v>
+        <v>827.272082000863</v>
       </c>
       <c r="O5" t="n">
-        <v>1002.248584212155</v>
+        <v>1002.248584212159</v>
       </c>
       <c r="P5" t="n">
-        <v>1113.912597717509</v>
+        <v>1113.912597717513</v>
       </c>
       <c r="Q5" t="n">
-        <v>1120.545861735975</v>
+        <v>1120.54586173598</v>
       </c>
       <c r="R5" t="n">
-        <v>1120.545861735975</v>
+        <v>1120.54586173598</v>
       </c>
       <c r="S5" t="n">
-        <v>1120.545861735975</v>
+        <v>1120.54586173598</v>
       </c>
       <c r="T5" t="n">
-        <v>1120.545861735975</v>
+        <v>1120.54586173598</v>
       </c>
       <c r="U5" t="n">
-        <v>1120.545861735975</v>
+        <v>1120.54586173598</v>
       </c>
       <c r="V5" t="n">
-        <v>837.5797350349713</v>
+        <v>837.5797350349746</v>
       </c>
       <c r="W5" t="n">
-        <v>837.5797350349713</v>
+        <v>837.5797350349746</v>
       </c>
       <c r="X5" t="n">
-        <v>554.6136083339675</v>
+        <v>595.288671385933</v>
       </c>
       <c r="Y5" t="n">
-        <v>271.6474816329636</v>
+        <v>595.288671385933</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47.32926078547621</v>
+        <v>356.1014015213021</v>
       </c>
       <c r="C6" t="n">
-        <v>22.41091723471951</v>
+        <v>181.6483722401751</v>
       </c>
       <c r="D6" t="n">
-        <v>22.41091723471951</v>
+        <v>181.6483722401751</v>
       </c>
       <c r="E6" t="n">
-        <v>22.41091723471951</v>
+        <v>22.41091723471959</v>
       </c>
       <c r="F6" t="n">
-        <v>22.41091723471951</v>
+        <v>22.41091723471959</v>
       </c>
       <c r="G6" t="n">
-        <v>22.41091723471951</v>
+        <v>22.41091723471959</v>
       </c>
       <c r="H6" t="n">
-        <v>22.41091723471951</v>
+        <v>22.41091723471959</v>
       </c>
       <c r="I6" t="n">
-        <v>22.41091723471951</v>
+        <v>22.41091723471959</v>
       </c>
       <c r="J6" t="n">
-        <v>29.40680815721913</v>
+        <v>22.41091723471959</v>
       </c>
       <c r="K6" t="n">
-        <v>29.40680815721913</v>
+        <v>22.41091723471959</v>
       </c>
       <c r="L6" t="n">
-        <v>277.1463396180976</v>
+        <v>22.41091723471959</v>
       </c>
       <c r="M6" t="n">
-        <v>554.4814403977515</v>
+        <v>299.7460180143745</v>
       </c>
       <c r="N6" t="n">
-        <v>772.4679255074764</v>
+        <v>574.190673175463</v>
       </c>
       <c r="O6" t="n">
-        <v>1040.700538846422</v>
+        <v>842.4232865144089</v>
       </c>
       <c r="P6" t="n">
-        <v>1040.700538846422</v>
+        <v>1040.700538846426</v>
       </c>
       <c r="Q6" t="n">
-        <v>1120.545861735975</v>
+        <v>1120.54586173598</v>
       </c>
       <c r="R6" t="n">
-        <v>1120.545861735975</v>
+        <v>1120.54586173598</v>
       </c>
       <c r="S6" t="n">
-        <v>1120.545861735975</v>
+        <v>1120.54586173598</v>
       </c>
       <c r="T6" t="n">
-        <v>1120.545861735975</v>
+        <v>918.6959650637456</v>
       </c>
       <c r="U6" t="n">
-        <v>1120.545861735975</v>
+        <v>918.6959650637456</v>
       </c>
       <c r="V6" t="n">
-        <v>885.3937535042326</v>
+        <v>771.7132004917889</v>
       </c>
       <c r="W6" t="n">
-        <v>631.156396776031</v>
+        <v>771.7132004917889</v>
       </c>
       <c r="X6" t="n">
-        <v>423.3048965704982</v>
+        <v>563.8617002862561</v>
       </c>
       <c r="Y6" t="n">
-        <v>215.5445978055442</v>
+        <v>356.1014015213021</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.41091723471951</v>
+        <v>203.7194474788715</v>
       </c>
       <c r="C7" t="n">
-        <v>22.41091723471951</v>
+        <v>172.5275566470553</v>
       </c>
       <c r="D7" t="n">
-        <v>22.41091723471951</v>
+        <v>22.41091723471959</v>
       </c>
       <c r="E7" t="n">
-        <v>22.41091723471951</v>
+        <v>22.41091723471959</v>
       </c>
       <c r="F7" t="n">
-        <v>22.41091723471951</v>
+        <v>22.41091723471959</v>
       </c>
       <c r="G7" t="n">
-        <v>22.41091723471951</v>
+        <v>22.41091723471959</v>
       </c>
       <c r="H7" t="n">
-        <v>22.41091723471951</v>
+        <v>22.41091723471959</v>
       </c>
       <c r="I7" t="n">
-        <v>22.41091723471951</v>
+        <v>22.41091723471959</v>
       </c>
       <c r="J7" t="n">
-        <v>22.41091723471951</v>
+        <v>22.41091723471959</v>
       </c>
       <c r="K7" t="n">
-        <v>22.41091723471951</v>
+        <v>22.41091723471959</v>
       </c>
       <c r="L7" t="n">
-        <v>59.92962843222417</v>
+        <v>59.92962843222451</v>
       </c>
       <c r="M7" t="n">
-        <v>109.8769719730203</v>
+        <v>109.8769719730209</v>
       </c>
       <c r="N7" t="n">
-        <v>164.0712957440713</v>
+        <v>164.0712957440722</v>
       </c>
       <c r="O7" t="n">
-        <v>198.1122298376279</v>
+        <v>198.112229837629</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7194474788702</v>
+        <v>203.7194474788715</v>
       </c>
       <c r="Q7" t="n">
-        <v>203.7194474788702</v>
+        <v>203.7194474788715</v>
       </c>
       <c r="R7" t="n">
-        <v>203.7194474788702</v>
+        <v>203.7194474788715</v>
       </c>
       <c r="S7" t="n">
-        <v>203.7194474788702</v>
+        <v>203.7194474788715</v>
       </c>
       <c r="T7" t="n">
-        <v>203.7194474788702</v>
+        <v>203.7194474788715</v>
       </c>
       <c r="U7" t="n">
-        <v>203.7194474788702</v>
+        <v>203.7194474788715</v>
       </c>
       <c r="V7" t="n">
-        <v>22.41091723471951</v>
+        <v>203.7194474788715</v>
       </c>
       <c r="W7" t="n">
-        <v>22.41091723471951</v>
+        <v>203.7194474788715</v>
       </c>
       <c r="X7" t="n">
-        <v>22.41091723471951</v>
+        <v>203.7194474788715</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.41091723471951</v>
+        <v>203.7194474788715</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1490.470645930551</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C8" t="n">
-        <v>1121.508128990139</v>
+        <v>920.0552989279781</v>
       </c>
       <c r="D8" t="n">
-        <v>763.2424303833884</v>
+        <v>561.7896003212277</v>
       </c>
       <c r="E8" t="n">
-        <v>763.2424303833884</v>
+        <v>561.7896003212277</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>554.8440995720242</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2267.209817970484</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>2267.209817970484</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y8" t="n">
-        <v>1877.070485994672</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>245.45494510253</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>245.45494510253</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>245.45494510253</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>97.5418515201369</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>97.5418515201369</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>717.9960905617243</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>717.9960905617243</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>428.8224802162921</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>428.8224802162921</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>428.8224802162921</v>
       </c>
       <c r="X10" t="n">
-        <v>245.45494510253</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>245.45494510253</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2334.922984192268</v>
+        <v>2334.922984192267</v>
       </c>
       <c r="C11" t="n">
-        <v>1965.960467251856</v>
+        <v>1965.960467251855</v>
       </c>
       <c r="D11" t="n">
         <v>1607.694768645106</v>
@@ -5033,58 +5033,58 @@
         <v>396.6131300684015</v>
       </c>
       <c r="H11" t="n">
-        <v>106.8637681017653</v>
+        <v>106.8637681017652</v>
       </c>
       <c r="I11" t="n">
-        <v>94.35833540878045</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J11" t="n">
-        <v>514.2768770617008</v>
+        <v>346.8712280413478</v>
       </c>
       <c r="K11" t="n">
-        <v>943.466764149162</v>
+        <v>776.061115128809</v>
       </c>
       <c r="L11" t="n">
-        <v>1512.81653250498</v>
+        <v>1345.410883484627</v>
       </c>
       <c r="M11" t="n">
-        <v>2177.997289200755</v>
+        <v>2455.610038338306</v>
       </c>
       <c r="N11" t="n">
-        <v>2858.555174343772</v>
+        <v>3136.167923481323</v>
       </c>
       <c r="O11" t="n">
-        <v>3487.851425687304</v>
+        <v>3765.464174824855</v>
       </c>
       <c r="P11" t="n">
-        <v>4007.301865868355</v>
+        <v>4268.052965204271</v>
       </c>
       <c r="Q11" t="n">
-        <v>4546.744210776185</v>
+        <v>4611.803466450438</v>
       </c>
       <c r="R11" t="n">
-        <v>4717.916770439022</v>
+        <v>4717.916770439021</v>
       </c>
       <c r="S11" t="n">
-        <v>4625.057832282289</v>
+        <v>4625.057832282288</v>
       </c>
       <c r="T11" t="n">
-        <v>4422.428736315838</v>
+        <v>4422.428736315837</v>
       </c>
       <c r="U11" t="n">
-        <v>4168.959457106967</v>
+        <v>4168.959457106966</v>
       </c>
       <c r="V11" t="n">
-        <v>3837.896569763396</v>
+        <v>3837.896569763395</v>
       </c>
       <c r="W11" t="n">
         <v>3485.127914493281</v>
       </c>
       <c r="X11" t="n">
-        <v>3111.662156232202</v>
+        <v>3111.662156232201</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.52282425639</v>
+        <v>2721.522824256389</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>185.8226612101445</v>
       </c>
       <c r="H12" t="n">
-        <v>99.273689855436</v>
+        <v>99.27368985543598</v>
       </c>
       <c r="I12" t="n">
-        <v>94.35833540878045</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J12" t="n">
-        <v>225.9354374172501</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="K12" t="n">
-        <v>528.9764867671145</v>
+        <v>397.3993847586448</v>
       </c>
       <c r="L12" t="n">
-        <v>982.7751163614419</v>
+        <v>851.1980143529722</v>
       </c>
       <c r="M12" t="n">
-        <v>1391.217271267615</v>
+        <v>1093.660258330644</v>
       </c>
       <c r="N12" t="n">
-        <v>1969.072619194017</v>
+        <v>1671.515606257047</v>
       </c>
       <c r="O12" t="n">
-        <v>1969.072619194017</v>
+        <v>2177.920561205297</v>
       </c>
       <c r="P12" t="n">
-        <v>2356.174174746173</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.022116757453</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>708.2141988293265</v>
+        <v>565.314646768653</v>
       </c>
       <c r="C13" t="n">
-        <v>539.2780159014196</v>
+        <v>396.3784638407461</v>
       </c>
       <c r="D13" t="n">
-        <v>389.1613764890839</v>
+        <v>328.2548422468363</v>
       </c>
       <c r="E13" t="n">
-        <v>241.2482829066908</v>
+        <v>328.2548422468363</v>
       </c>
       <c r="F13" t="n">
-        <v>94.35833540878045</v>
+        <v>181.364894748926</v>
       </c>
       <c r="G13" t="n">
-        <v>94.35833540878045</v>
+        <v>181.364894748926</v>
       </c>
       <c r="H13" t="n">
-        <v>94.35833540878045</v>
+        <v>181.364894748926</v>
       </c>
       <c r="I13" t="n">
-        <v>94.35833540878045</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J13" t="n">
         <v>163.2581048092509</v>
@@ -5227,22 +5227,22 @@
         <v>2028.438948119389</v>
       </c>
       <c r="T13" t="n">
-        <v>1882.413432122636</v>
+        <v>1808.138470955393</v>
       </c>
       <c r="U13" t="n">
-        <v>1593.329281907001</v>
+        <v>1519.054320739758</v>
       </c>
       <c r="V13" t="n">
-        <v>1338.644793701114</v>
+        <v>1264.369832533871</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.644793701114</v>
+        <v>974.9526624969101</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.655242803096</v>
+        <v>746.9631115988927</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.8626636595662</v>
+        <v>746.9631115988927</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2334.922984192268</v>
+        <v>2334.922984192267</v>
       </c>
       <c r="C14" t="n">
-        <v>1965.960467251857</v>
+        <v>1965.960467251856</v>
       </c>
       <c r="D14" t="n">
         <v>1607.694768645106</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.906516046862</v>
+        <v>1221.906516046861</v>
       </c>
       <c r="F14" t="n">
-        <v>810.9206112572547</v>
+        <v>810.9206112572537</v>
       </c>
       <c r="G14" t="n">
-        <v>396.6131300684015</v>
+        <v>396.6131300684014</v>
       </c>
       <c r="H14" t="n">
-        <v>106.8637681017653</v>
+        <v>106.8637681017652</v>
       </c>
       <c r="I14" t="n">
-        <v>94.35833540878045</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J14" t="n">
-        <v>514.2768770617008</v>
+        <v>346.8712280413478</v>
       </c>
       <c r="K14" t="n">
-        <v>943.466764149162</v>
+        <v>1096.965073574262</v>
       </c>
       <c r="L14" t="n">
-        <v>1512.81653250498</v>
+        <v>1666.31484193008</v>
       </c>
       <c r="M14" t="n">
-        <v>2177.997289200755</v>
+        <v>2331.495598625856</v>
       </c>
       <c r="N14" t="n">
-        <v>2858.555174343772</v>
+        <v>3012.053483768872</v>
       </c>
       <c r="O14" t="n">
-        <v>3487.851425687304</v>
+        <v>3641.349735112404</v>
       </c>
       <c r="P14" t="n">
-        <v>4007.301865868355</v>
+        <v>4282.552962295914</v>
       </c>
       <c r="Q14" t="n">
-        <v>4546.744210776185</v>
+        <v>4611.803466450438</v>
       </c>
       <c r="R14" t="n">
-        <v>4717.916770439022</v>
+        <v>4717.916770439021</v>
       </c>
       <c r="S14" t="n">
-        <v>4625.057832282289</v>
+        <v>4625.057832282288</v>
       </c>
       <c r="T14" t="n">
-        <v>4422.428736315838</v>
+        <v>4422.428736315837</v>
       </c>
       <c r="U14" t="n">
-        <v>4168.959457106967</v>
+        <v>4168.959457106966</v>
       </c>
       <c r="V14" t="n">
-        <v>3837.896569763396</v>
+        <v>3837.896569763395</v>
       </c>
       <c r="W14" t="n">
         <v>3485.127914493281</v>
       </c>
       <c r="X14" t="n">
-        <v>3111.662156232202</v>
+        <v>3111.662156232201</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.52282425639</v>
+        <v>2721.522824256389</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5349,22 @@
         <v>185.8226612101445</v>
       </c>
       <c r="H15" t="n">
-        <v>99.273689855436</v>
+        <v>99.27368985543598</v>
       </c>
       <c r="I15" t="n">
-        <v>94.35833540878045</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J15" t="n">
-        <v>225.9354374172501</v>
+        <v>127.9726373751729</v>
       </c>
       <c r="K15" t="n">
-        <v>528.9764867671145</v>
+        <v>431.0136867250372</v>
       </c>
       <c r="L15" t="n">
-        <v>982.7751163614419</v>
+        <v>884.8123163193646</v>
       </c>
       <c r="M15" t="n">
-        <v>982.7751163614419</v>
+        <v>884.8123163193646</v>
       </c>
       <c r="N15" t="n">
         <v>1462.667664245767</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1105.746827462155</v>
+        <v>344.5220676251229</v>
       </c>
       <c r="C16" t="n">
-        <v>936.8106445342478</v>
+        <v>328.2548422468363</v>
       </c>
       <c r="D16" t="n">
-        <v>786.694005121912</v>
+        <v>328.2548422468363</v>
       </c>
       <c r="E16" t="n">
-        <v>638.7809115395189</v>
+        <v>328.2548422468363</v>
       </c>
       <c r="F16" t="n">
-        <v>491.8909640416085</v>
+        <v>181.364894748926</v>
       </c>
       <c r="G16" t="n">
-        <v>324.5312661595458</v>
+        <v>181.364894748926</v>
       </c>
       <c r="H16" t="n">
         <v>181.364894748926</v>
       </c>
       <c r="I16" t="n">
-        <v>94.35833540878045</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J16" t="n">
         <v>163.2581048092509</v>
@@ -5467,19 +5467,19 @@
         <v>1808.138470955393</v>
       </c>
       <c r="U16" t="n">
-        <v>1576.812462329355</v>
+        <v>1519.054320739758</v>
       </c>
       <c r="V16" t="n">
-        <v>1576.812462329355</v>
+        <v>1264.369832533871</v>
       </c>
       <c r="W16" t="n">
-        <v>1287.395292292394</v>
+        <v>974.9526624969101</v>
       </c>
       <c r="X16" t="n">
-        <v>1287.395292292394</v>
+        <v>746.9631115988927</v>
       </c>
       <c r="Y16" t="n">
-        <v>1287.395292292394</v>
+        <v>526.1705324553626</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2334.922984192267</v>
+        <v>2334.922984192268</v>
       </c>
       <c r="C17" t="n">
-        <v>1965.960467251855</v>
+        <v>1965.960467251856</v>
       </c>
       <c r="D17" t="n">
-        <v>1607.694768645105</v>
+        <v>1607.694768645106</v>
       </c>
       <c r="E17" t="n">
         <v>1221.906516046861</v>
       </c>
       <c r="F17" t="n">
-        <v>810.9206112572531</v>
+        <v>810.9206112572538</v>
       </c>
       <c r="G17" t="n">
-        <v>396.6131300684008</v>
+        <v>396.6131300684015</v>
       </c>
       <c r="H17" t="n">
-        <v>106.8637681017653</v>
+        <v>106.8637681017652</v>
       </c>
       <c r="I17" t="n">
         <v>94.35833540878042</v>
@@ -5516,7 +5516,7 @@
         <v>514.2768770617008</v>
       </c>
       <c r="K17" t="n">
-        <v>943.4667641491619</v>
+        <v>943.466764149162</v>
       </c>
       <c r="L17" t="n">
         <v>1512.81653250498</v>
@@ -5525,16 +5525,16 @@
         <v>2177.997289200755</v>
       </c>
       <c r="N17" t="n">
-        <v>2858.555174343771</v>
+        <v>2858.555174343772</v>
       </c>
       <c r="O17" t="n">
-        <v>3487.851425687303</v>
+        <v>3487.851425687304</v>
       </c>
       <c r="P17" t="n">
-        <v>4007.301865868356</v>
+        <v>4007.301865868355</v>
       </c>
       <c r="Q17" t="n">
-        <v>4546.744210776185</v>
+        <v>4546.744210776184</v>
       </c>
       <c r="R17" t="n">
         <v>4717.916770439021</v>
@@ -5555,10 +5555,10 @@
         <v>3485.127914493281</v>
       </c>
       <c r="X17" t="n">
-        <v>3111.662156232201</v>
+        <v>3111.662156232202</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.522824256389</v>
+        <v>2721.52282425639</v>
       </c>
     </row>
     <row r="18">
@@ -5583,10 +5583,10 @@
         <v>321.7764668971937</v>
       </c>
       <c r="G18" t="n">
-        <v>185.8226612101446</v>
+        <v>185.8226612101445</v>
       </c>
       <c r="H18" t="n">
-        <v>99.273689855436</v>
+        <v>99.27368985543598</v>
       </c>
       <c r="I18" t="n">
         <v>94.35833540878042</v>
@@ -5595,25 +5595,25 @@
         <v>225.9354374172501</v>
       </c>
       <c r="K18" t="n">
-        <v>528.9764867671144</v>
+        <v>528.9764867671145</v>
       </c>
       <c r="L18" t="n">
-        <v>982.7751163614416</v>
+        <v>982.7751163614419</v>
       </c>
       <c r="M18" t="n">
-        <v>982.7751163614416</v>
+        <v>1366.452293237095</v>
       </c>
       <c r="N18" t="n">
-        <v>1462.667664245767</v>
+        <v>1944.307641163497</v>
       </c>
       <c r="O18" t="n">
-        <v>1969.072619194017</v>
+        <v>1944.307641163497</v>
       </c>
       <c r="P18" t="n">
-        <v>2356.174174746173</v>
+        <v>2331.409196715653</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.022116757453</v>
+        <v>2540.257138726933</v>
       </c>
       <c r="R18" t="n">
         <v>2565.022116757453</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1013.604674830666</v>
+        <v>471.4212136574562</v>
       </c>
       <c r="C19" t="n">
-        <v>844.668491902759</v>
+        <v>471.4212136574562</v>
       </c>
       <c r="D19" t="n">
-        <v>694.5518524904232</v>
+        <v>471.4212136574562</v>
       </c>
       <c r="E19" t="n">
-        <v>546.6387589080301</v>
+        <v>471.4212136574562</v>
       </c>
       <c r="F19" t="n">
-        <v>399.7488114101197</v>
+        <v>324.5312661595458</v>
       </c>
       <c r="G19" t="n">
         <v>324.5312661595458</v>
@@ -5671,19 +5671,19 @@
         <v>94.35833540878042</v>
       </c>
       <c r="J19" t="n">
-        <v>163.2581048092508</v>
+        <v>163.2581048092509</v>
       </c>
       <c r="K19" t="n">
-        <v>406.3184278206417</v>
+        <v>406.3184278206418</v>
       </c>
       <c r="L19" t="n">
-        <v>772.8783931378673</v>
+        <v>772.8783931378675</v>
       </c>
       <c r="M19" t="n">
         <v>1169.75360415979</v>
       </c>
       <c r="N19" t="n">
-        <v>1562.626626145178</v>
+        <v>1562.626626145179</v>
       </c>
       <c r="O19" t="n">
         <v>1909.492154775449</v>
@@ -5701,22 +5701,22 @@
         <v>2028.438948119389</v>
       </c>
       <c r="T19" t="n">
-        <v>2028.438948119389</v>
+        <v>1808.138470955393</v>
       </c>
       <c r="U19" t="n">
-        <v>1739.354797903753</v>
+        <v>1519.054320739758</v>
       </c>
       <c r="V19" t="n">
-        <v>1484.670309697866</v>
+        <v>1264.369832533871</v>
       </c>
       <c r="W19" t="n">
-        <v>1195.253139660906</v>
+        <v>974.9526624969101</v>
       </c>
       <c r="X19" t="n">
-        <v>1195.253139660906</v>
+        <v>746.9631115988927</v>
       </c>
       <c r="Y19" t="n">
-        <v>1195.253139660906</v>
+        <v>653.0696784876959</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>396.6131300684015</v>
       </c>
       <c r="H20" t="n">
-        <v>106.8637681017653</v>
+        <v>106.8637681017652</v>
       </c>
       <c r="I20" t="n">
         <v>94.35833540878042</v>
@@ -5753,7 +5753,7 @@
         <v>346.8712280413478</v>
       </c>
       <c r="K20" t="n">
-        <v>776.0611151288089</v>
+        <v>776.061115128809</v>
       </c>
       <c r="L20" t="n">
         <v>1345.410883484627</v>
@@ -5762,16 +5762,16 @@
         <v>2010.591640180402</v>
       </c>
       <c r="N20" t="n">
-        <v>3124.122980491283</v>
+        <v>2691.149525323419</v>
       </c>
       <c r="O20" t="n">
-        <v>3753.419231834815</v>
+        <v>3320.445776666951</v>
       </c>
       <c r="P20" t="n">
-        <v>4256.008022214231</v>
+        <v>4007.301865868355</v>
       </c>
       <c r="Q20" t="n">
-        <v>4585.258526368754</v>
+        <v>4546.744210776184</v>
       </c>
       <c r="R20" t="n">
         <v>4717.916770439021</v>
@@ -5780,22 +5780,22 @@
         <v>4625.057832282288</v>
       </c>
       <c r="T20" t="n">
-        <v>4422.428736315836</v>
+        <v>4422.428736315837</v>
       </c>
       <c r="U20" t="n">
-        <v>4168.959457106965</v>
+        <v>4168.959457106966</v>
       </c>
       <c r="V20" t="n">
-        <v>3837.896569763396</v>
+        <v>3837.896569763395</v>
       </c>
       <c r="W20" t="n">
         <v>3485.127914493281</v>
       </c>
       <c r="X20" t="n">
-        <v>3111.662156232202</v>
+        <v>3111.662156232201</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.52282425639</v>
+        <v>2721.522824256389</v>
       </c>
     </row>
     <row r="21">
@@ -5820,37 +5820,37 @@
         <v>321.7764668971937</v>
       </c>
       <c r="G21" t="n">
-        <v>185.8226612101446</v>
+        <v>185.8226612101445</v>
       </c>
       <c r="H21" t="n">
-        <v>99.273689855436</v>
+        <v>99.27368985543598</v>
       </c>
       <c r="I21" t="n">
         <v>94.35833540878042</v>
       </c>
       <c r="J21" t="n">
-        <v>225.9354374172501</v>
+        <v>103.2076593446533</v>
       </c>
       <c r="K21" t="n">
-        <v>528.9764867671144</v>
+        <v>406.2487086945176</v>
       </c>
       <c r="L21" t="n">
-        <v>982.7751163614416</v>
+        <v>860.047338288845</v>
       </c>
       <c r="M21" t="n">
-        <v>1391.217271267615</v>
+        <v>860.047338288845</v>
       </c>
       <c r="N21" t="n">
-        <v>1969.072619194017</v>
+        <v>1437.902686215247</v>
       </c>
       <c r="O21" t="n">
-        <v>1969.072619194017</v>
+        <v>1944.307641163497</v>
       </c>
       <c r="P21" t="n">
-        <v>2356.174174746173</v>
+        <v>2331.409196715653</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.022116757453</v>
+        <v>2540.257138726933</v>
       </c>
       <c r="R21" t="n">
         <v>2565.022116757453</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>344.5220676251224</v>
+        <v>344.5220676251229</v>
       </c>
       <c r="C22" t="n">
-        <v>261.7180332908432</v>
+        <v>175.585884697216</v>
       </c>
       <c r="D22" t="n">
-        <v>261.7180332908432</v>
+        <v>175.585884697216</v>
       </c>
       <c r="E22" t="n">
-        <v>261.7180332908432</v>
+        <v>175.585884697216</v>
       </c>
       <c r="F22" t="n">
-        <v>261.7180332908432</v>
+        <v>175.585884697216</v>
       </c>
       <c r="G22" t="n">
-        <v>94.35833540878042</v>
+        <v>175.585884697216</v>
       </c>
       <c r="H22" t="n">
         <v>94.35833540878042</v>
@@ -5908,19 +5908,19 @@
         <v>94.35833540878042</v>
       </c>
       <c r="J22" t="n">
-        <v>163.2581048092508</v>
+        <v>163.2581048092509</v>
       </c>
       <c r="K22" t="n">
-        <v>406.3184278206417</v>
+        <v>406.3184278206418</v>
       </c>
       <c r="L22" t="n">
-        <v>772.8783931378673</v>
+        <v>772.8783931378675</v>
       </c>
       <c r="M22" t="n">
         <v>1169.75360415979</v>
       </c>
       <c r="N22" t="n">
-        <v>1562.626626145178</v>
+        <v>1562.626626145179</v>
       </c>
       <c r="O22" t="n">
         <v>1909.492154775449</v>
@@ -5941,19 +5941,19 @@
         <v>1808.138470955393</v>
       </c>
       <c r="U22" t="n">
-        <v>1519.054320739757</v>
+        <v>1519.054320739758</v>
       </c>
       <c r="V22" t="n">
-        <v>1264.36983253387</v>
+        <v>1264.369832533871</v>
       </c>
       <c r="W22" t="n">
-        <v>974.9526624969096</v>
+        <v>974.9526624969101</v>
       </c>
       <c r="X22" t="n">
-        <v>746.9631115988923</v>
+        <v>746.9631115988927</v>
       </c>
       <c r="Y22" t="n">
-        <v>526.1705324553621</v>
+        <v>526.1705324553626</v>
       </c>
     </row>
     <row r="23">
@@ -5981,34 +5981,34 @@
         <v>396.6131300684015</v>
       </c>
       <c r="H23" t="n">
-        <v>106.8637681017653</v>
+        <v>106.8637681017652</v>
       </c>
       <c r="I23" t="n">
         <v>94.35833540878042</v>
       </c>
       <c r="J23" t="n">
-        <v>346.8712280413478</v>
+        <v>514.2768770617008</v>
       </c>
       <c r="K23" t="n">
-        <v>776.0611151288089</v>
+        <v>943.466764149162</v>
       </c>
       <c r="L23" t="n">
-        <v>1345.410883484627</v>
+        <v>1512.81653250498</v>
       </c>
       <c r="M23" t="n">
-        <v>2010.591640180402</v>
+        <v>2177.997289200755</v>
       </c>
       <c r="N23" t="n">
-        <v>2691.149525323418</v>
+        <v>2858.555174343772</v>
       </c>
       <c r="O23" t="n">
-        <v>3396.324195152478</v>
+        <v>3487.851425687304</v>
       </c>
       <c r="P23" t="n">
-        <v>4217.493706621662</v>
+        <v>4007.301865868355</v>
       </c>
       <c r="Q23" t="n">
-        <v>4546.744210776185</v>
+        <v>4546.744210776184</v>
       </c>
       <c r="R23" t="n">
         <v>4717.916770439021</v>
@@ -6017,13 +6017,13 @@
         <v>4625.057832282288</v>
       </c>
       <c r="T23" t="n">
-        <v>4422.428736315836</v>
+        <v>4422.428736315837</v>
       </c>
       <c r="U23" t="n">
-        <v>4168.959457106965</v>
+        <v>4168.959457106966</v>
       </c>
       <c r="V23" t="n">
-        <v>3837.896569763396</v>
+        <v>3837.896569763395</v>
       </c>
       <c r="W23" t="n">
         <v>3485.127914493281</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3103.830572499711</v>
+        <v>950.9359188181426</v>
       </c>
       <c r="C24" t="n">
-        <v>2929.377543218584</v>
+        <v>776.4828895370156</v>
       </c>
       <c r="D24" t="n">
-        <v>2780.443133557333</v>
+        <v>627.5484798757643</v>
       </c>
       <c r="E24" t="n">
-        <v>2621.205678551877</v>
+        <v>468.3110248703088</v>
       </c>
       <c r="F24" t="n">
-        <v>2474.671120578762</v>
+        <v>321.7764668971937</v>
       </c>
       <c r="G24" t="n">
-        <v>2338.717314891713</v>
+        <v>185.8226612101445</v>
       </c>
       <c r="H24" t="n">
-        <v>2252.168343537004</v>
+        <v>99.27368985543598</v>
       </c>
       <c r="I24" t="n">
-        <v>2247.252989090348</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J24" t="n">
-        <v>2378.830091098818</v>
+        <v>225.9354374172501</v>
       </c>
       <c r="K24" t="n">
-        <v>2681.871140448683</v>
+        <v>478.0447196781837</v>
       </c>
       <c r="L24" t="n">
-        <v>3135.66977004301</v>
+        <v>931.8433492725111</v>
       </c>
       <c r="M24" t="n">
-        <v>3684.588234653299</v>
+        <v>1480.7618138828</v>
       </c>
       <c r="N24" t="n">
-        <v>4121.967272875586</v>
+        <v>2058.617161809203</v>
       </c>
       <c r="O24" t="n">
-        <v>4121.967272875586</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="P24" t="n">
-        <v>4509.068828427741</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="Q24" t="n">
-        <v>4717.916770439021</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="R24" t="n">
-        <v>4717.916770439021</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="S24" t="n">
-        <v>4596.081349389558</v>
+        <v>2443.18669570799</v>
       </c>
       <c r="T24" t="n">
-        <v>4405.088093047351</v>
+        <v>2252.193439365783</v>
       </c>
       <c r="U24" t="n">
-        <v>4177.04717345021</v>
+        <v>2024.152519768641</v>
       </c>
       <c r="V24" t="n">
-        <v>3941.895065218467</v>
+        <v>1789.000411536899</v>
       </c>
       <c r="W24" t="n">
-        <v>3687.657708490266</v>
+        <v>1534.763054808697</v>
       </c>
       <c r="X24" t="n">
-        <v>3479.806208284733</v>
+        <v>1326.911554603164</v>
       </c>
       <c r="Y24" t="n">
-        <v>3272.045909519779</v>
+        <v>1119.151255838211</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>344.5220676251224</v>
+        <v>556.5775291596429</v>
       </c>
       <c r="C25" t="n">
-        <v>175.5858846972155</v>
+        <v>387.641346231736</v>
       </c>
       <c r="D25" t="n">
-        <v>175.5858846972155</v>
+        <v>237.5247068194003</v>
       </c>
       <c r="E25" t="n">
-        <v>175.5858846972155</v>
+        <v>237.5247068194003</v>
       </c>
       <c r="F25" t="n">
-        <v>175.5858846972155</v>
+        <v>237.5247068194003</v>
       </c>
       <c r="G25" t="n">
-        <v>94.35833540878042</v>
+        <v>237.5247068194003</v>
       </c>
       <c r="H25" t="n">
         <v>94.35833540878042</v>
@@ -6145,19 +6145,19 @@
         <v>94.35833540878042</v>
       </c>
       <c r="J25" t="n">
-        <v>163.2581048092508</v>
+        <v>163.2581048092509</v>
       </c>
       <c r="K25" t="n">
-        <v>406.3184278206417</v>
+        <v>406.3184278206418</v>
       </c>
       <c r="L25" t="n">
-        <v>772.8783931378673</v>
+        <v>772.8783931378675</v>
       </c>
       <c r="M25" t="n">
         <v>1169.75360415979</v>
       </c>
       <c r="N25" t="n">
-        <v>1562.626626145178</v>
+        <v>1562.626626145179</v>
       </c>
       <c r="O25" t="n">
         <v>1909.492154775449</v>
@@ -6172,25 +6172,25 @@
         <v>2214.144859831204</v>
       </c>
       <c r="S25" t="n">
-        <v>2028.438948119389</v>
+        <v>2214.144859831204</v>
       </c>
       <c r="T25" t="n">
-        <v>1808.138470955393</v>
+        <v>1993.844382667208</v>
       </c>
       <c r="U25" t="n">
-        <v>1519.054320739757</v>
+        <v>1704.760232451573</v>
       </c>
       <c r="V25" t="n">
-        <v>1264.36983253387</v>
+        <v>1450.075744245686</v>
       </c>
       <c r="W25" t="n">
-        <v>974.9526624969096</v>
+        <v>1160.658574208725</v>
       </c>
       <c r="X25" t="n">
-        <v>746.9631115988923</v>
+        <v>932.6690233107081</v>
       </c>
       <c r="Y25" t="n">
-        <v>526.1705324553621</v>
+        <v>738.2259939898827</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796664</v>
+        <v>725.1782574796655</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162828</v>
+        <v>342.8002736162819</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511515</v>
+        <v>84.98040897511424</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951447</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050962</v>
@@ -6245,31 +6245,31 @@
         <v>3813.656640612702</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J27" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="K27" t="n">
-        <v>519.5985603334502</v>
+        <v>388.0214583249805</v>
       </c>
       <c r="L27" t="n">
-        <v>973.3971899277775</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.315654538066</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N27" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O27" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P27" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q27" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749439</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897926</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511621</v>
@@ -6385,19 +6385,19 @@
         <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P28" t="n">
         <v>2392.455631028688</v>
@@ -6446,67 +6446,67 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796676</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076842</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6525,19 +6525,19 @@
         <v>618.1705534421001</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9330984366446</v>
+        <v>458.9330984366445</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3985404635296</v>
+        <v>312.3985404635295</v>
       </c>
       <c r="G30" t="n">
-        <v>176.4447347764804</v>
+        <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
         <v>216.5575109835859</v>
@@ -6546,19 +6546,19 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>973.3971899277775</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>973.3971899277775</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.289737812103</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
         <v>2555.644190323788</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502095</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477707</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609042</v>
+        <v>617.6685920609036</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G31" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
         <v>185.1742787042784</v>
@@ -6625,7 +6625,7 @@
         <v>459.5287020443611</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6649,22 +6649,22 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U31" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X31" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
@@ -6698,13 +6698,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
         <v>2001.213713746739</v>
@@ -6716,7 +6716,7 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
         <v>4142.907144767228</v>
@@ -6725,25 +6725,25 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W32" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="33">
@@ -6783,19 +6783,19 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>973.3971899277776</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M33" t="n">
-        <v>1381.83934483395</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N33" t="n">
-        <v>1959.694692760353</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O33" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
         <v>2555.644190323788</v>
@@ -6853,7 +6853,7 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511623</v>
       </c>
       <c r="J34" t="n">
         <v>185.1742787042785</v>
@@ -6862,7 +6862,7 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
@@ -6889,16 +6889,16 @@
         <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
         <v>1022.581387254981</v>
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
@@ -6950,37 +6950,37 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P35" t="n">
         <v>3813.656640612703</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W35" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J36" t="n">
         <v>216.5575109835859</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477712</v>
       </c>
       <c r="D37" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749438</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897926</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
         <v>459.5287020443612</v>
@@ -7129,13 +7129,13 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254981</v>
@@ -7163,7 +7163,7 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
         <v>84.98040897511622</v>
@@ -7172,13 +7172,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951459</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
         <v>2001.213713746739</v>
@@ -7190,7 +7190,7 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
         <v>4142.907144767228</v>
@@ -7245,34 +7245,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I39" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>140.8607658641353</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>443.9018152139996</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L39" t="n">
-        <v>897.700444808327</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M39" t="n">
-        <v>1446.618909418616</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N39" t="n">
-        <v>2024.474257345018</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F40" t="n">
         <v>386.7245456315385</v>
@@ -7330,13 +7330,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040893</v>
@@ -7348,7 +7348,7 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q40" t="n">
         <v>2529.521427597205</v>
@@ -7360,19 +7360,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7394,31 +7394,31 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796679</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I41" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076834</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
         <v>2681.771598889755</v>
@@ -7427,7 +7427,7 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q41" t="n">
         <v>4142.907144767228</v>
@@ -7442,19 +7442,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7491,19 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>519.5985603334502</v>
+        <v>468.6667932445192</v>
       </c>
       <c r="L42" t="n">
-        <v>973.3971899277776</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M42" t="n">
-        <v>1084.28233189698</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N42" t="n">
-        <v>1662.137679823382</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O42" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
         <v>2555.644190323788</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477716</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
         <v>140.0574709897931</v>
@@ -7567,13 +7567,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7588,7 +7588,7 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R43" t="n">
         <v>2487.049233352542</v>
@@ -7597,19 +7597,19 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U43" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7625,7 +7625,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
         <v>1458.093420216582</v>
@@ -7634,16 +7634,16 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
         <v>337.4933016076836</v>
@@ -7670,28 +7670,28 @@
         <v>4142.907144767227</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K45" t="n">
-        <v>519.5985603334502</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L45" t="n">
-        <v>973.3971899277776</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M45" t="n">
-        <v>973.3971899277776</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N45" t="n">
-        <v>1551.25253785418</v>
+        <v>1968.593900456</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2474.99885540425</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G46" t="n">
         <v>251.2943450749443</v>
@@ -7801,25 +7801,25 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P46" t="n">
         <v>2392.455631028688</v>
@@ -7837,7 +7837,7 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
         <v>1664.992195357083</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>274.34551349684</v>
+        <v>217.2853909287126</v>
       </c>
       <c r="N3" t="n">
         <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
-        <v>124.673618687554</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,25 +8292,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>119.0244788530353</v>
       </c>
       <c r="K6" t="n">
-        <v>124.4875249009891</v>
+        <v>124.4875249009888</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>120.5983943328744</v>
       </c>
       <c r="M6" t="n">
-        <v>401.3167112684825</v>
+        <v>401.3167112684831</v>
       </c>
       <c r="N6" t="n">
-        <v>330.0217083727711</v>
+        <v>387.0501629701075</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>118.1827157793144</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8705,13 +8705,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>17.03196949660133</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>14.64646170872936</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>17.03196949660133</v>
+        <v>140.0145826303976</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>17.03196949660281</v>
+        <v>17.03196949660042</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9410,19 +9410,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>186.1285846686741</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>26.81307078957906</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9650,13 +9650,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>76.64486715709893</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>17.03196949660042</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.614797267597169e-12</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>89.11637806865207</v>
       </c>
       <c r="D2" t="n">
-        <v>44.39031082369665</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>147.1011673447406</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>120.2661701862135</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>305.5406054117622</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>81.17308764024169</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>141.7347076965137</v>
       </c>
       <c r="I13" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>73.53221155557048</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>151.1422679741242</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.18056017370131</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>91.22073110517393</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>218.097472392356</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>125.6301545720099</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>85.27082710769142</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H22" t="n">
-        <v>141.7347076965137</v>
+        <v>61.31943390096248</v>
       </c>
       <c r="I22" t="n">
-        <v>86.13649374674408</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>85.2708271076914</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H25" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>86.13649374674408</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>26.08605432447763</v>
       </c>
     </row>
     <row r="26">
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1398900.09620838</v>
+        <v>1398900.096208379</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1398900.09620838</v>
+        <v>1398900.096208379</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1398900.096208379</v>
+        <v>1398900.09620838</v>
       </c>
     </row>
     <row r="8">
@@ -26314,7 +26314,7 @@
         <v>16754.39684564964</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660709</v>
@@ -26323,7 +26323,7 @@
         <v>20073.87673926389</v>
       </c>
       <c r="F2" t="n">
-        <v>20073.8767392639</v>
+        <v>20073.87673926389</v>
       </c>
       <c r="G2" t="n">
         <v>20073.87673926389</v>
@@ -26335,22 +26335,22 @@
         <v>20073.87673926389</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.04424660706</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="L2" t="n">
         <v>20526.04424660707</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="N2" t="n">
         <v>20526.04424660707</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="P2" t="n">
         <v>20526.04424660707</v>
@@ -26366,13 +26366,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>4405.579976556273</v>
+        <v>4405.579976557489</v>
       </c>
       <c r="D3" t="n">
-        <v>413013.2066767365</v>
+        <v>413013.2066767353</v>
       </c>
       <c r="E3" t="n">
-        <v>874236.2745193443</v>
+        <v>874236.2745193442</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>66871.87945528979</v>
+        <v>66871.87945528967</v>
       </c>
       <c r="K3" t="n">
-        <v>1024.312217268361</v>
+        <v>1024.312217268688</v>
       </c>
       <c r="L3" t="n">
-        <v>99756.02197556826</v>
+        <v>99756.02197556803</v>
       </c>
       <c r="M3" t="n">
-        <v>125895.8471955952</v>
+        <v>125895.8471955951</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>25288.16188177119</v>
+        <v>25288.16188177112</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>255995.6494348066</v>
+        <v>255995.6494348067</v>
       </c>
       <c r="C4" t="n">
-        <v>340871.9341590239</v>
+        <v>340871.9341590236</v>
       </c>
       <c r="D4" t="n">
         <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>14598.74046120319</v>
+        <v>14598.74046120318</v>
       </c>
       <c r="F4" t="n">
         <v>14598.74046120319</v>
       </c>
       <c r="G4" t="n">
-        <v>14598.74046120322</v>
+        <v>14598.74046120321</v>
       </c>
       <c r="H4" t="n">
-        <v>14598.74046120328</v>
+        <v>14598.74046120321</v>
       </c>
       <c r="I4" t="n">
-        <v>14598.7404612033</v>
+        <v>14598.74046120321</v>
       </c>
       <c r="J4" t="n">
-        <v>37300.09932593622</v>
+        <v>37300.09932593626</v>
       </c>
       <c r="K4" t="n">
-        <v>37300.09932593622</v>
+        <v>37300.09932593619</v>
       </c>
       <c r="L4" t="n">
         <v>37300.09932593619</v>
@@ -26451,13 +26451,13 @@
         <v>37300.0993259362</v>
       </c>
       <c r="N4" t="n">
+        <v>37300.09932593619</v>
+      </c>
+      <c r="O4" t="n">
         <v>37300.09932593617</v>
       </c>
-      <c r="O4" t="n">
-        <v>37300.09932593621</v>
-      </c>
       <c r="P4" t="n">
-        <v>37300.09932593621</v>
+        <v>37300.0993259362</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>51498.048621888</v>
+        <v>51498.04862188809</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>99576.22009019181</v>
+        <v>99576.2200901918</v>
       </c>
       <c r="F5" t="n">
-        <v>99576.22009019181</v>
+        <v>99576.2200901918</v>
       </c>
       <c r="G5" t="n">
-        <v>99576.22009019178</v>
+        <v>99576.2200901918</v>
       </c>
       <c r="H5" t="n">
-        <v>99576.22009019178</v>
+        <v>99576.2200901918</v>
       </c>
       <c r="I5" t="n">
-        <v>99576.22009019178</v>
+        <v>99576.2200901918</v>
       </c>
       <c r="J5" t="n">
         <v>95106.43410215525</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="L5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="M5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="N5" t="n">
         <v>95106.43410215528</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>95106.43410215527</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>95106.43410215528</v>
-      </c>
-      <c r="P5" t="n">
-        <v>95106.43410215527</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-416715.9735527501</v>
+        <v>-417093.1382928459</v>
       </c>
       <c r="C6" t="n">
-        <v>-376249.5185108611</v>
+        <v>-376249.5185108621</v>
       </c>
       <c r="D6" t="n">
-        <v>-694126.5654918739</v>
+        <v>-694126.5654918727</v>
       </c>
       <c r="E6" t="n">
-        <v>-968337.3583314754</v>
+        <v>-968382.5750822097</v>
       </c>
       <c r="F6" t="n">
-        <v>-94101.08381213111</v>
+        <v>-94146.30056286544</v>
       </c>
       <c r="G6" t="n">
-        <v>-94101.08381213111</v>
+        <v>-94146.30056286544</v>
       </c>
       <c r="H6" t="n">
-        <v>-94101.08381213118</v>
+        <v>-94146.30056286544</v>
       </c>
       <c r="I6" t="n">
-        <v>-94101.08381213118</v>
+        <v>-94146.30056286544</v>
       </c>
       <c r="J6" t="n">
-        <v>-178752.3686367742</v>
+        <v>-178752.3686367741</v>
       </c>
       <c r="K6" t="n">
-        <v>-112904.8013987528</v>
+        <v>-112904.8013987531</v>
       </c>
       <c r="L6" t="n">
-        <v>-211636.5111570526</v>
+        <v>-211636.5111570524</v>
       </c>
       <c r="M6" t="n">
-        <v>-237776.3363770797</v>
+        <v>-237776.3363770795</v>
       </c>
       <c r="N6" t="n">
         <v>-111880.4891814844</v>
       </c>
       <c r="O6" t="n">
-        <v>-137168.6510632556</v>
+        <v>-137168.6510632555</v>
       </c>
       <c r="P6" t="n">
         <v>-111880.4891814844</v>
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L2" t="n">
         <v>31.61020235221394</v>
@@ -26719,13 +26719,13 @@
         <v>31.61020235221395</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>38.44731759179745</v>
+        <v>38.44731759179842</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26790,16 +26790,16 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>280.1364654339938</v>
+        <v>280.1364654339949</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1179.479192609756</v>
+        <v>1179.479192609755</v>
       </c>
       <c r="F4" t="n">
-        <v>1179.479192609756</v>
+        <v>1179.479192609755</v>
       </c>
       <c r="G4" t="n">
         <v>1179.479192609755</v>
@@ -26811,7 +26811,7 @@
         <v>1179.479192609755</v>
       </c>
       <c r="J4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="K4" t="n">
         <v>1062.255112188953</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>3.42605687267212</v>
+        <v>3.426056872673087</v>
       </c>
       <c r="D3" t="n">
-        <v>339.2963466252891</v>
+        <v>339.2963466252882</v>
       </c>
       <c r="E3" t="n">
-        <v>900.4162064030362</v>
+        <v>900.4162064030361</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>3.979951731638366</v>
+        <v>3.979951731639407</v>
       </c>
       <c r="D4" t="n">
-        <v>394.1508073205618</v>
+        <v>394.1508073205607</v>
       </c>
       <c r="E4" t="n">
-        <v>505.1919198551999</v>
+        <v>505.1919198551997</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>158.932433281553</v>
+        <v>158.9324332815526</v>
       </c>
       <c r="K4" t="n">
-        <v>3.979951731638593</v>
+        <v>3.979951731639862</v>
       </c>
       <c r="L4" t="n">
-        <v>394.1508073205616</v>
+        <v>394.1508073205607</v>
       </c>
       <c r="M4" t="n">
-        <v>505.1919198551999</v>
+        <v>505.1919198551994</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>3.979951731638366</v>
+        <v>3.979951731639407</v>
       </c>
       <c r="L4" t="n">
-        <v>394.1508073205618</v>
+        <v>394.1508073205607</v>
       </c>
       <c r="M4" t="n">
-        <v>505.1919198551999</v>
+        <v>505.1919198551997</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>310.2927307969863</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>43.70036330565085</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27464,19 +27464,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>247.6555417597307</v>
       </c>
       <c r="X3" t="n">
-        <v>13.48127876791307</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>174.4537986637794</v>
@@ -27588,10 +27588,10 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>52.54455953715788</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>192.0582235775503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>175.2800224218138</v>
+        <v>135.0117100003691</v>
       </c>
       <c r="H5" t="n">
-        <v>337.8918932060707</v>
+        <v>57.75542777207573</v>
       </c>
       <c r="I5" t="n">
-        <v>204.5171349514802</v>
+        <v>204.51713495148</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>140.1601076349155</v>
+        <v>140.1601076349153</v>
       </c>
       <c r="S5" t="n">
         <v>205.4979861706751</v>
@@ -27673,16 +27673,16 @@
         <v>251.3332879413748</v>
       </c>
       <c r="V5" t="n">
-        <v>47.6157930361411</v>
+        <v>47.61579303614002</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>89.59463524447523</v>
+        <v>129.8629476659178</v>
       </c>
       <c r="Y5" t="n">
-        <v>106.1014732220598</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>148.0393388730666</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>137.2608191593339</v>
       </c>
       <c r="H6" t="n">
-        <v>111.4367556201084</v>
+        <v>111.4367556201083</v>
       </c>
       <c r="I6" t="n">
-        <v>86.54935508636216</v>
+        <v>86.54935508636208</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.02330370142158</v>
+        <v>95.02330370142144</v>
       </c>
       <c r="S6" t="n">
         <v>170.1470919528825</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8313977055116</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.935941422825</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>87.28765022318819</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>136.3668491751299</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,13 +27792,13 @@
         <v>161.6107548581809</v>
       </c>
       <c r="I7" t="n">
-        <v>153.365495802772</v>
+        <v>153.3654958027719</v>
       </c>
       <c r="J7" t="n">
-        <v>88.45746226566608</v>
+        <v>88.45746226566595</v>
       </c>
       <c r="K7" t="n">
-        <v>14.21446364845382</v>
+        <v>14.21446364845361</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.35649829533297</v>
+        <v>80.35649829533283</v>
       </c>
       <c r="R7" t="n">
-        <v>174.1760072327592</v>
+        <v>174.1760072327591</v>
       </c>
       <c r="S7" t="n">
         <v>222.8083438103579</v>
@@ -27831,7 +27831,7 @@
         <v>286.3152476531212</v>
       </c>
       <c r="V7" t="n">
-        <v>72.64219838211886</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>118.4537616851127</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>393.7461524558702</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>124.1469212562762</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>202.113974241756</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.648459146963432e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29095,10 +29095,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.648459146963432e-12</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605609</v>
+        <v>12.3803783660569</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="32">
@@ -29806,7 +29806,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221429</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W32" t="n">
         <v>31.61020235221394</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221429</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
   </sheetData>
@@ -31045,7 +31045,7 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -31057,28 +31057,28 @@
         <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677232</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
         <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870379</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
         <v>0.01126311902524633</v>
@@ -31118,25 +31118,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727678</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
         <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
         <v>19.59175225833409</v>
@@ -31148,10 +31148,10 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
         <v>1.399198482504676</v>
@@ -31160,7 +31160,7 @@
         <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,37 +31197,37 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
         <v>2.839592713390063</v>
@@ -31236,10 +31236,10 @@
         <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1545620807710449</v>
+        <v>0.1545620807710488</v>
       </c>
       <c r="H5" t="n">
-        <v>1.582908909696464</v>
+        <v>1.582908909696504</v>
       </c>
       <c r="I5" t="n">
-        <v>5.958754618925715</v>
+        <v>5.958754618925865</v>
       </c>
       <c r="J5" t="n">
-        <v>13.11826340284149</v>
+        <v>13.11826340284182</v>
       </c>
       <c r="K5" t="n">
-        <v>19.66087628187982</v>
+        <v>19.66087628188032</v>
       </c>
       <c r="L5" t="n">
-        <v>24.39105556127669</v>
+        <v>24.39105556127731</v>
       </c>
       <c r="M5" t="n">
-        <v>27.13974896518876</v>
+        <v>27.13974896518945</v>
       </c>
       <c r="N5" t="n">
-        <v>27.57889847717949</v>
+        <v>27.57889847718019</v>
       </c>
       <c r="O5" t="n">
-        <v>26.04197178651241</v>
+        <v>26.04197178651307</v>
       </c>
       <c r="P5" t="n">
-        <v>22.22622041747724</v>
+        <v>22.2262204174778</v>
       </c>
       <c r="Q5" t="n">
-        <v>16.69096589986419</v>
+        <v>16.69096589986461</v>
       </c>
       <c r="R5" t="n">
-        <v>9.709010306234159</v>
+        <v>9.709010306234404</v>
       </c>
       <c r="S5" t="n">
-        <v>3.522083415570189</v>
+        <v>3.522083415570278</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6765955085752494</v>
+        <v>0.6765955085752665</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01236496646168359</v>
+        <v>0.0123649664616839</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0826980038766964</v>
+        <v>0.0826980038766985</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7986886163880943</v>
+        <v>0.7986886163881146</v>
       </c>
       <c r="I6" t="n">
-        <v>2.847277765052925</v>
+        <v>2.847277765052997</v>
       </c>
       <c r="J6" t="n">
-        <v>7.813147813631217</v>
+        <v>7.813147813631415</v>
       </c>
       <c r="K6" t="n">
-        <v>13.35391407336988</v>
+        <v>13.35391407337021</v>
       </c>
       <c r="L6" t="n">
-        <v>17.95598544699937</v>
+        <v>17.95598544699982</v>
       </c>
       <c r="M6" t="n">
-        <v>20.95378808752961</v>
+        <v>20.95378808753014</v>
       </c>
       <c r="N6" t="n">
-        <v>21.50837250826412</v>
+        <v>21.50837250826467</v>
       </c>
       <c r="O6" t="n">
-        <v>19.67595884341732</v>
+        <v>19.67595884341782</v>
       </c>
       <c r="P6" t="n">
-        <v>15.79169163501583</v>
+        <v>15.79169163501623</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.55632765275163</v>
+        <v>10.5563276527519</v>
       </c>
       <c r="R6" t="n">
-        <v>5.134530451221556</v>
+        <v>5.134530451221686</v>
       </c>
       <c r="S6" t="n">
-        <v>1.536079150955303</v>
+        <v>1.536079150955342</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3333309893100174</v>
+        <v>0.3333309893100259</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00544065814978266</v>
+        <v>0.005440658149782798</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0693312284442249</v>
+        <v>0.06933122844422665</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6164176492586546</v>
+        <v>0.6164176492586702</v>
       </c>
       <c r="I7" t="n">
-        <v>2.084979124486328</v>
+        <v>2.08497912448638</v>
       </c>
       <c r="J7" t="n">
-        <v>4.9017178510067</v>
+        <v>4.901717851006825</v>
       </c>
       <c r="K7" t="n">
-        <v>8.055028177429037</v>
+        <v>8.055028177429241</v>
       </c>
       <c r="L7" t="n">
-        <v>10.3076628179714</v>
+        <v>10.30766281797166</v>
       </c>
       <c r="M7" t="n">
-        <v>10.86798520057973</v>
+        <v>10.86798520058</v>
       </c>
       <c r="N7" t="n">
-        <v>10.60956880365126</v>
+        <v>10.60956880365153</v>
       </c>
       <c r="O7" t="n">
-        <v>9.79965399864372</v>
+        <v>9.799653998643969</v>
       </c>
       <c r="P7" t="n">
-        <v>8.385296938381526</v>
+        <v>8.385296938381737</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.805544956361415</v>
+        <v>5.805544956361562</v>
       </c>
       <c r="R7" t="n">
-        <v>3.11738414441033</v>
+        <v>3.117384144410409</v>
       </c>
       <c r="S7" t="n">
-        <v>1.208254226614355</v>
+        <v>1.208254226614386</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2962334306253245</v>
+        <v>0.296233430625332</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003781703369684999</v>
+        <v>0.003781703369685095</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31838,7 +31838,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J12" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>443.943509024727</v>
@@ -31847,19 +31847,19 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M12" t="n">
-        <v>554.7018671605767</v>
+        <v>387.0453914752226</v>
       </c>
       <c r="N12" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P12" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q12" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,7 +32075,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J15" t="n">
-        <v>259.7437903115855</v>
+        <v>160.7914670367601</v>
       </c>
       <c r="K15" t="n">
         <v>443.943509024727</v>
@@ -32087,7 +32087,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>616.0816594412374</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O15" t="n">
         <v>654.1164009578283</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I17" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N17" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32306,37 +32306,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>529.6867378368196</v>
       </c>
       <c r="N18" t="n">
-        <v>616.0816594412381</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578282</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892349</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q18" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S18" t="n">
         <v>51.06610426486996</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I19" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
         <v>162.9549067838146</v>
@@ -32397,31 +32397,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I20" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N20" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32543,37 +32543,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115855</v>
+        <v>135.7763377130029</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>554.7018671605774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892349</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H22" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I22" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838146</v>
@@ -32634,31 +32634,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P22" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I23" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N23" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R23" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32780,34 +32780,34 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H24" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>443.9435090247269</v>
+        <v>392.4972796419687</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>573.1387203886736</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H25" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I25" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
         <v>162.9549067838146</v>
@@ -32871,31 +32871,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L25" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P25" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R25" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H26" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I26" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J26" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K26" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L26" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M26" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N26" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O26" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P26" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q26" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R26" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S26" t="n">
         <v>117.0897208110796</v>
@@ -33017,37 +33017,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H27" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I27" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
-        <v>573.1387203886732</v>
+        <v>681.029754709834</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>524.9860796892349</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q27" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486996</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H28" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I28" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J28" t="n">
         <v>162.9549067838146</v>
@@ -33108,31 +33108,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L28" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M28" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N28" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O28" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P28" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q28" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R28" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S28" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T28" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U28" t="n">
         <v>0.1257206430118155</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H29" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I29" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J29" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L29" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N29" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O29" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R29" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S29" t="n">
         <v>117.0897208110796</v>
@@ -33254,34 +33254,34 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H30" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
-        <v>616.0816594412378</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578282</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H31" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I31" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J31" t="n">
         <v>162.9549067838146</v>
@@ -33345,31 +33345,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L31" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M31" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N31" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O31" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P31" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q31" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R31" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S31" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33503,22 +33503,22 @@
         <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>596.9368339155584</v>
+        <v>545.4906045327998</v>
       </c>
       <c r="M33" t="n">
-        <v>554.7018671605765</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N33" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H38" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I38" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J38" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K38" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L38" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M38" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N38" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O38" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P38" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q38" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R38" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S38" t="n">
         <v>117.0897208110796</v>
@@ -33925,7 +33925,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H39" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I39" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J39" t="n">
-        <v>183.2824316050698</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K39" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L39" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
-        <v>696.5971294879669</v>
+        <v>645.1509001052082</v>
       </c>
       <c r="N39" t="n">
-        <v>715.0339827160628</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,16 +33995,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T39" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34050,10 +34050,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J40" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K40" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L40" t="n">
         <v>342.6725659692048</v>
@@ -34065,22 +34065,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O40" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P40" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q40" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R40" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S40" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T40" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U40" t="n">
         <v>0.1257206430118155</v>
@@ -34211,13 +34211,13 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
-        <v>443.943509024727</v>
+        <v>392.4972796419685</v>
       </c>
       <c r="L42" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
-        <v>254.1392278303035</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
         <v>715.0339827160628</v>
@@ -34226,7 +34226,7 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P42" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34445,7 +34445,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>443.943509024727</v>
@@ -34454,22 +34454,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>530.1489483592454</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P45" t="n">
-        <v>524.986079689235</v>
+        <v>215.4343416764904</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34717,7 +34717,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424824</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>151.298066666745</v>
+        <v>94.23794409861753</v>
       </c>
       <c r="N3" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
         <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,13 +34866,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831901</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.168974048228968</v>
+        <v>1.1689740482293</v>
       </c>
       <c r="K5" t="n">
-        <v>123.716437808064</v>
+        <v>123.7164378080645</v>
       </c>
       <c r="L5" t="n">
-        <v>206.2858551417399</v>
+        <v>206.2858551417405</v>
       </c>
       <c r="M5" t="n">
-        <v>246.3070492307485</v>
+        <v>246.3070492307492</v>
       </c>
       <c r="N5" t="n">
-        <v>235.5127592925728</v>
+        <v>235.5127592925734</v>
       </c>
       <c r="O5" t="n">
-        <v>176.743941627571</v>
+        <v>176.7439416275717</v>
       </c>
       <c r="P5" t="n">
-        <v>112.7919328336903</v>
+        <v>112.7919328336909</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.700266685319384</v>
+        <v>6.700266685319807</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.066556487373361</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>250.2419509705844</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>280.1364654339938</v>
+        <v>280.1364654339949</v>
       </c>
       <c r="N6" t="n">
-        <v>220.1883687977019</v>
+        <v>277.2168233950388</v>
       </c>
       <c r="O6" t="n">
-        <v>270.9420336757024</v>
+        <v>270.9420336757029</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>200.2800528606232</v>
       </c>
       <c r="Q6" t="n">
-        <v>80.65184130257921</v>
+        <v>80.65184130257948</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>37.89768807828754</v>
+        <v>37.8976880782878</v>
       </c>
       <c r="M7" t="n">
-        <v>50.45186216242031</v>
+        <v>50.45186216242059</v>
       </c>
       <c r="N7" t="n">
-        <v>54.74174118287985</v>
+        <v>54.74174118288012</v>
       </c>
       <c r="O7" t="n">
-        <v>34.38478191268339</v>
+        <v>34.38478191268364</v>
       </c>
       <c r="P7" t="n">
-        <v>5.663856203275014</v>
+        <v>5.663856203275225</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>424.160143083758</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K11" t="n">
         <v>433.5251384721831</v>
@@ -35416,7 +35416,7 @@
         <v>575.1007761169878</v>
       </c>
       <c r="M11" t="n">
-        <v>671.8997542381569</v>
+        <v>1121.413287730989</v>
       </c>
       <c r="N11" t="n">
         <v>687.4322072151681</v>
@@ -35425,13 +35425,13 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P11" t="n">
-        <v>524.6974143242943</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q11" t="n">
-        <v>544.8912574826563</v>
+        <v>347.2227285314809</v>
       </c>
       <c r="R11" t="n">
-        <v>172.9015754170063</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>306.102070050368</v>
@@ -35495,19 +35495,19 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M12" t="n">
-        <v>412.5678332385584</v>
+        <v>244.9113575532042</v>
       </c>
       <c r="N12" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P12" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>424.160143083758</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721831</v>
+        <v>757.6705510433478</v>
       </c>
       <c r="L14" t="n">
         <v>575.1007761169878</v>
@@ -35662,13 +35662,13 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P14" t="n">
-        <v>524.6974143242943</v>
+        <v>647.6800274580905</v>
       </c>
       <c r="Q14" t="n">
-        <v>544.8912574826563</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R14" t="n">
-        <v>172.9015754170063</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>132.9061636449188</v>
+        <v>33.95384037009341</v>
       </c>
       <c r="K15" t="n">
         <v>306.102070050368</v>
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>484.7399473579041</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O15" t="n">
         <v>511.5201565133839</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>424.1601430837579</v>
+        <v>424.160143083758</v>
       </c>
       <c r="K17" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N17" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
-        <v>524.6974143242957</v>
+        <v>524.6974143242934</v>
       </c>
       <c r="Q17" t="n">
-        <v>544.8912574826561</v>
+        <v>544.8912574826563</v>
       </c>
       <c r="R17" t="n">
         <v>172.9015754170063</v>
@@ -35966,25 +35966,25 @@
         <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>387.5527039148013</v>
       </c>
       <c r="N18" t="n">
-        <v>484.7399473579048</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133838</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749046</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q18" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>69.59572666714183</v>
+        <v>69.59572666714186</v>
       </c>
       <c r="K19" t="n">
-        <v>245.5154777892837</v>
+        <v>245.5154777892838</v>
       </c>
       <c r="L19" t="n">
-        <v>370.2625912295208</v>
+        <v>370.2625912295209</v>
       </c>
       <c r="M19" t="n">
-        <v>400.8840515372958</v>
+        <v>400.8840515372959</v>
       </c>
       <c r="N19" t="n">
         <v>396.8414363488768</v>
       </c>
       <c r="O19" t="n">
-        <v>350.3692208386572</v>
+        <v>350.3692208386573</v>
       </c>
       <c r="P19" t="n">
         <v>276.0431317030919</v>
       </c>
       <c r="Q19" t="n">
-        <v>106.8400972119441</v>
+        <v>106.8400972119442</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
-        <v>1124.779131627152</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276929</v>
+        <v>693.7940294963671</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227514</v>
+        <v>544.8912574826563</v>
       </c>
       <c r="R20" t="n">
-        <v>133.9982263336029</v>
+        <v>172.9015754170063</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449188</v>
+        <v>8.938711046336222</v>
       </c>
       <c r="K21" t="n">
         <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>412.5678332385591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749046</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>69.59572666714183</v>
+        <v>69.59572666714186</v>
       </c>
       <c r="K22" t="n">
-        <v>245.5154777892837</v>
+        <v>245.5154777892838</v>
       </c>
       <c r="L22" t="n">
-        <v>370.2625912295208</v>
+        <v>370.2625912295209</v>
       </c>
       <c r="M22" t="n">
-        <v>400.8840515372958</v>
+        <v>400.8840515372959</v>
       </c>
       <c r="N22" t="n">
         <v>396.8414363488768</v>
       </c>
       <c r="O22" t="n">
-        <v>350.3692208386572</v>
+        <v>350.3692208386573</v>
       </c>
       <c r="P22" t="n">
         <v>276.0431317030919</v>
       </c>
       <c r="Q22" t="n">
-        <v>106.8400972119441</v>
+        <v>106.8400972119442</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116842</v>
+        <v>424.160143083758</v>
       </c>
       <c r="K23" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N23" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
-        <v>712.2976462919797</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P23" t="n">
-        <v>829.4641529991754</v>
+        <v>524.6974143242934</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227514</v>
+        <v>544.8912574826563</v>
       </c>
       <c r="R23" t="n">
         <v>172.9015754170063</v>
@@ -36437,25 +36437,25 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>306.102070050368</v>
+        <v>254.6558406676097</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>441.7970083053403</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>69.59572666714183</v>
+        <v>69.59572666714186</v>
       </c>
       <c r="K25" t="n">
-        <v>245.5154777892837</v>
+        <v>245.5154777892838</v>
       </c>
       <c r="L25" t="n">
-        <v>370.2625912295208</v>
+        <v>370.2625912295209</v>
       </c>
       <c r="M25" t="n">
-        <v>400.8840515372958</v>
+        <v>400.8840515372959</v>
       </c>
       <c r="N25" t="n">
         <v>396.8414363488768</v>
       </c>
       <c r="O25" t="n">
-        <v>350.3692208386572</v>
+        <v>350.3692208386573</v>
       </c>
       <c r="P25" t="n">
         <v>276.0431317030919</v>
       </c>
       <c r="Q25" t="n">
-        <v>106.8400972119441</v>
+        <v>106.8400972119442</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.062225503964594e-12</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>255.0635279116842</v>
       </c>
       <c r="K26" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L26" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N26" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O26" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P26" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>441.7970083053398</v>
+        <v>549.6880426265008</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749046</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q27" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O28" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q28" t="n">
         <v>138.4502995641581</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116848</v>
       </c>
       <c r="K29" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L29" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N29" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348834</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>484.7399473579044</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133838</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
         <v>401.8727935817348</v>
@@ -36999,13 +36999,13 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q31" t="n">
         <v>138.4502995641581</v>
@@ -37069,7 +37069,7 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K32" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721837</v>
       </c>
       <c r="L32" t="n">
         <v>575.1007761169878</v>
@@ -37151,22 +37151,22 @@
         <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>458.3824541356842</v>
+        <v>406.9362247529257</v>
       </c>
       <c r="M33" t="n">
-        <v>412.5678332385582</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R35" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K38" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L38" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M38" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N38" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O38" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P38" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q38" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R38" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>56.44480493840307</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K39" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L39" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4630955659486</v>
+        <v>503.0168661831898</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
         <v>138.4502995641581</v>
@@ -37859,13 +37859,13 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
-        <v>306.102070050368</v>
+        <v>254.6558406676095</v>
       </c>
       <c r="L42" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
-        <v>112.0051939082852</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
         <v>583.6922706327296</v>
@@ -37874,7 +37874,7 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L43" t="n">
         <v>401.8727935817349</v>
@@ -38038,7 +38038,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>306.102070050368</v>
@@ -38102,22 +38102,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>387.552703914801</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749048</v>
+        <v>81.45993426216013</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
